--- a/uploads/Fasit_kres_eu.xlsx
+++ b/uploads/Fasit_kres_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayoung/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoung\Desktop\Thesis\real_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1710636-CCCC-F940-83A1-582EB5B5DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067446CF-8185-46ED-B75E-EFFD164A67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14800" windowHeight="15600" xr2:uid="{69898852-D492-4A31-81A3-EC70B8AD3B90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="15600" xr2:uid="{69898852-D492-4A31-81A3-EC70B8AD3B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,16 +496,16 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="4"/>
-    <col min="5" max="5" width="19.5" style="7"/>
-    <col min="6" max="6" width="19.5"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="4"/>
+    <col min="5" max="5" width="19.42578125" style="7"/>
+    <col min="6" max="6" width="19.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -513,14 +513,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -574,7 +574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -594,7 +594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -614,7 +614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -774,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -814,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -854,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>21</v>
       </c>
@@ -988,40 +988,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="E34" s="10"/>
